--- a/Week 2/DanielLoehnert_Week2Homework.xlsx
+++ b/Week 2/DanielLoehnert_Week2Homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fd9fa18b89f308/Desktop/Savvy Coders/Homework/Week 2 Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Code\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{9F96D4B5-1D50-4E96-9B70-31C426E085DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C0BA87-DD3B-40E9-9088-742096EF69AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE5D552-0114-4F2E-8481-F80EA5D6F76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="170">
   <si>
     <t>Expenses</t>
   </si>
@@ -540,9 +540,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>2012</t>
   </si>
   <si>
     <t>Tax Code</t>
@@ -666,7 +663,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -712,9 +709,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -738,6 +732,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -745,64 +748,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -853,6 +799,36 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1067,6 +1043,1353 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1100,30 +2423,117 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$5:$B$6</c:f>
+              <c:f>Payments!$B$5:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>64894.25</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>738.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001B-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1153,30 +2563,90 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$C$5:$C$6</c:f>
+              <c:f>Payments!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001C-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,30 +2676,87 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$5:$D$6</c:f>
+              <c:f>Payments!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001D-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,6 +3287,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Balances</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,14 +5441,128 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Loehnert" refreshedDate="45212.433572337963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{134210C7-7FB0-4463-9414-BEC126DCECAB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I210" sheet="Expenses"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="15">
     <cacheField name="Document Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00" count="108">
+        <d v="2011-02-14T00:00:00"/>
+        <d v="2011-03-01T00:00:00"/>
+        <d v="2011-03-02T00:00:00"/>
+        <d v="2011-03-05T00:00:00"/>
+        <d v="2011-03-15T00:00:00"/>
+        <d v="2011-03-18T00:00:00"/>
+        <d v="2011-03-20T00:00:00"/>
+        <d v="2011-03-26T00:00:00"/>
+        <d v="2011-03-31T00:00:00"/>
+        <d v="2011-04-01T00:00:00"/>
+        <d v="2011-04-05T00:00:00"/>
+        <d v="2011-04-12T00:00:00"/>
+        <d v="2011-04-15T00:00:00"/>
+        <d v="2011-04-20T00:00:00"/>
+        <d v="2011-04-25T00:00:00"/>
+        <d v="2011-04-26T00:00:00"/>
+        <d v="2011-04-29T00:00:00"/>
+        <d v="2011-04-30T00:00:00"/>
+        <d v="2011-05-01T00:00:00"/>
+        <d v="2011-05-05T00:00:00"/>
+        <d v="2011-05-07T00:00:00"/>
+        <d v="2011-05-15T00:00:00"/>
+        <d v="2011-05-20T00:00:00"/>
+        <d v="2011-05-26T00:00:00"/>
+        <d v="2011-05-29T00:00:00"/>
+        <d v="2011-05-31T00:00:00"/>
+        <d v="2011-06-01T00:00:00"/>
+        <d v="2011-06-05T00:00:00"/>
+        <d v="2011-06-15T00:00:00"/>
+        <d v="2011-06-20T00:00:00"/>
+        <d v="2011-06-22T00:00:00"/>
+        <d v="2011-06-25T00:00:00"/>
+        <d v="2011-06-26T00:00:00"/>
+        <d v="2011-06-30T00:00:00"/>
+        <d v="2011-07-01T00:00:00"/>
+        <d v="2011-07-02T00:00:00"/>
+        <d v="2011-07-05T00:00:00"/>
+        <d v="2011-07-15T00:00:00"/>
+        <d v="2011-07-16T00:00:00"/>
+        <d v="2011-07-17T00:00:00"/>
+        <d v="2011-07-20T00:00:00"/>
+        <d v="2011-07-25T00:00:00"/>
+        <d v="2011-07-26T00:00:00"/>
+        <d v="2011-07-31T00:00:00"/>
+        <d v="2011-08-01T00:00:00"/>
+        <d v="2011-08-05T00:00:00"/>
+        <d v="2011-08-09T00:00:00"/>
+        <d v="2011-08-13T00:00:00"/>
+        <d v="2011-08-15T00:00:00"/>
+        <d v="2011-08-20T00:00:00"/>
+        <d v="2011-08-21T00:00:00"/>
+        <d v="2011-08-25T00:00:00"/>
+        <d v="2011-08-26T00:00:00"/>
+        <d v="2011-08-27T00:00:00"/>
+        <d v="2011-08-31T00:00:00"/>
+        <d v="2011-09-01T00:00:00"/>
+        <d v="2011-09-05T00:00:00"/>
+        <d v="2011-09-13T00:00:00"/>
+        <d v="2011-09-15T00:00:00"/>
+        <d v="2011-09-18T00:00:00"/>
+        <d v="2011-09-20T00:00:00"/>
+        <d v="2011-09-21T00:00:00"/>
+        <d v="2011-09-24T00:00:00"/>
+        <d v="2011-09-26T00:00:00"/>
+        <d v="2011-09-30T00:00:00"/>
+        <d v="2011-10-01T00:00:00"/>
+        <d v="2011-10-04T00:00:00"/>
+        <d v="2011-10-05T00:00:00"/>
+        <d v="2011-10-15T00:00:00"/>
+        <d v="2011-10-20T00:00:00"/>
+        <d v="2011-10-22T00:00:00"/>
+        <d v="2011-10-25T00:00:00"/>
+        <d v="2011-10-26T00:00:00"/>
+        <d v="2011-10-28T00:00:00"/>
+        <d v="2011-10-31T00:00:00"/>
+        <d v="2011-11-01T00:00:00"/>
+        <d v="2011-11-05T00:00:00"/>
+        <d v="2011-11-15T00:00:00"/>
+        <d v="2011-11-19T00:00:00"/>
+        <d v="2011-11-20T00:00:00"/>
+        <d v="2011-11-26T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-17T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
+        <d v="2011-12-22T00:00:00"/>
+        <d v="2011-12-25T00:00:00"/>
+        <d v="2011-12-26T00:00:00"/>
+        <d v="2011-12-31T00:00:00"/>
+        <d v="2012-01-01T00:00:00"/>
+        <d v="2012-01-05T00:00:00"/>
+        <d v="2012-01-15T00:00:00"/>
+        <d v="2012-01-16T00:00:00"/>
+        <d v="2012-01-20T00:00:00"/>
+        <d v="2012-01-26T00:00:00"/>
+        <d v="2012-01-28T00:00:00"/>
+        <d v="2012-01-31T00:00:00"/>
+        <d v="2012-02-01T00:00:00"/>
+        <d v="2012-02-05T00:00:00"/>
+        <d v="2012-02-11T00:00:00"/>
+        <d v="2012-02-15T00:00:00"/>
+        <d v="2012-02-20T00:00:00"/>
+        <d v="2012-02-25T00:00:00"/>
+        <d v="2012-02-26T00:00:00"/>
+        <d v="2012-02-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="14"/>
     </cacheField>
     <cacheField name="Supplier" numFmtId="0">
       <sharedItems/>
@@ -4083,6 +5749,51 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
+    <cacheField name="Months (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2/14/2011"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;2/14/2011"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;2/14/2011"/>
+          <s v="2011"/>
+          <s v="2012"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4095,7 +5806,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
   <r>
-    <d v="2011-02-14T00:00:00"/>
+    <x v="0"/>
     <s v="XY Solutions"/>
     <s v="S77782"/>
     <s v="Opening Balance"/>
@@ -4106,7 +5817,7 @@
     <x v="0"/>
   </r>
   <r>
-    <d v="2011-03-01T00:00:00"/>
+    <x v="1"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP22"/>
     <s v="Internet Service Provider"/>
@@ -4117,7 +5828,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-03-02T00:00:00"/>
+    <x v="2"/>
     <s v="Newscorp"/>
     <s v="I381119"/>
     <s v="Subscriptions"/>
@@ -4128,7 +5839,7 @@
     <x v="2"/>
   </r>
   <r>
-    <d v="2011-03-05T00:00:00"/>
+    <x v="3"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4139,7 +5850,7 @@
     <x v="3"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4150,7 +5861,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4161,7 +5872,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4172,7 +5883,7 @@
     <x v="5"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4183,7 +5894,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-18T00:00:00"/>
+    <x v="5"/>
     <s v="QQ International"/>
     <s v="TR6998"/>
     <s v="Parking"/>
@@ -4194,7 +5905,7 @@
     <x v="6"/>
   </r>
   <r>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="6"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4205,7 +5916,7 @@
     <x v="7"/>
   </r>
   <r>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="6"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4216,7 +5927,7 @@
     <x v="7"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4227,7 +5938,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4238,7 +5949,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4249,7 +5960,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4260,7 +5971,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="8"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4271,7 +5982,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="8"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4282,7 +5993,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-04-01T00:00:00"/>
+    <x v="9"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP23"/>
     <s v="Internet Service Provider"/>
@@ -4293,7 +6004,7 @@
     <x v="9"/>
   </r>
   <r>
-    <d v="2011-04-05T00:00:00"/>
+    <x v="10"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4304,7 +6015,7 @@
     <x v="10"/>
   </r>
   <r>
-    <d v="2011-04-12T00:00:00"/>
+    <x v="11"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4315,7 +6026,7 @@
     <x v="11"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4326,7 +6037,7 @@
     <x v="12"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4337,7 +6048,7 @@
     <x v="12"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4348,7 +6059,7 @@
     <x v="13"/>
   </r>
   <r>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="13"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4359,7 +6070,7 @@
     <x v="14"/>
   </r>
   <r>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="13"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4370,7 +6081,7 @@
     <x v="14"/>
   </r>
   <r>
-    <d v="2011-04-25T00:00:00"/>
+    <x v="14"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -4381,7 +6092,7 @@
     <x v="15"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4392,7 +6103,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="Furniture City"/>
     <s v="Invoice"/>
     <s v="Furniture"/>
@@ -4403,7 +6114,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4414,7 +6125,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4425,7 +6136,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4436,7 +6147,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-29T00:00:00"/>
+    <x v="16"/>
     <s v="GF Supplies"/>
     <s v="IN1179"/>
     <s v="Consumables"/>
@@ -4447,7 +6158,7 @@
     <x v="18"/>
   </r>
   <r>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="17"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4458,7 +6169,7 @@
     <x v="19"/>
   </r>
   <r>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="17"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4469,7 +6180,7 @@
     <x v="19"/>
   </r>
   <r>
-    <d v="2011-05-01T00:00:00"/>
+    <x v="18"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP24"/>
     <s v="Internet Service Provider"/>
@@ -4480,7 +6191,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-01T00:00:00"/>
+    <x v="18"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
@@ -4491,7 +6202,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-05T00:00:00"/>
+    <x v="19"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4502,7 +6213,7 @@
     <x v="21"/>
   </r>
   <r>
-    <d v="2011-05-07T00:00:00"/>
+    <x v="20"/>
     <s v="City Lodge"/>
     <s v="S50037"/>
     <s v="Accommodation"/>
@@ -4513,7 +6224,7 @@
     <x v="22"/>
   </r>
   <r>
-    <d v="2011-05-07T00:00:00"/>
+    <x v="20"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -4524,7 +6235,7 @@
     <x v="23"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4535,7 +6246,7 @@
     <x v="24"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4546,7 +6257,7 @@
     <x v="24"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4557,7 +6268,7 @@
     <x v="25"/>
   </r>
   <r>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="22"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4568,7 +6279,7 @@
     <x v="26"/>
   </r>
   <r>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="22"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4579,7 +6290,7 @@
     <x v="26"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4590,7 +6301,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4601,7 +6312,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4612,7 +6323,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4623,7 +6334,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-29T00:00:00"/>
+    <x v="24"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4634,7 +6345,7 @@
     <x v="18"/>
   </r>
   <r>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="25"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4645,7 +6356,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="25"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4656,7 +6367,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-06-01T00:00:00"/>
+    <x v="26"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP25"/>
     <s v="Internet Service Provider"/>
@@ -4667,7 +6378,7 @@
     <x v="27"/>
   </r>
   <r>
-    <d v="2011-06-05T00:00:00"/>
+    <x v="27"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4678,7 +6389,7 @@
     <x v="28"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4689,7 +6400,7 @@
     <x v="29"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4700,7 +6411,7 @@
     <x v="29"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4711,7 +6422,7 @@
     <x v="30"/>
   </r>
   <r>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="29"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4722,7 +6433,7 @@
     <x v="31"/>
   </r>
   <r>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="29"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4733,7 +6444,7 @@
     <x v="31"/>
   </r>
   <r>
-    <d v="2011-06-22T00:00:00"/>
+    <x v="30"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4744,7 +6455,7 @@
     <x v="32"/>
   </r>
   <r>
-    <d v="2011-06-25T00:00:00"/>
+    <x v="31"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -4755,7 +6466,7 @@
     <x v="33"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4766,7 +6477,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4777,7 +6488,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4788,7 +6499,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4799,7 +6510,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="SA Airlines"/>
     <s v="SA11235"/>
     <s v="Travel"/>
@@ -4810,7 +6521,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="33"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4821,7 +6532,7 @@
     <x v="35"/>
   </r>
   <r>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="33"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4832,7 +6543,7 @@
     <x v="35"/>
   </r>
   <r>
-    <d v="2011-07-01T00:00:00"/>
+    <x v="34"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP26"/>
     <s v="Internet Service Provider"/>
@@ -4843,7 +6554,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-07-02T00:00:00"/>
+    <x v="35"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -4854,7 +6565,7 @@
     <x v="37"/>
   </r>
   <r>
-    <d v="2011-07-05T00:00:00"/>
+    <x v="36"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4865,7 +6576,7 @@
     <x v="38"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4876,7 +6587,7 @@
     <x v="39"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4887,7 +6598,7 @@
     <x v="39"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4898,7 +6609,7 @@
     <x v="40"/>
   </r>
   <r>
-    <d v="2011-07-16T00:00:00"/>
+    <x v="38"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4909,7 +6620,7 @@
     <x v="41"/>
   </r>
   <r>
-    <d v="2011-07-17T00:00:00"/>
+    <x v="39"/>
     <s v="GF Supplies"/>
     <s v="IN1181"/>
     <s v="Consumables"/>
@@ -4920,7 +6631,7 @@
     <x v="42"/>
   </r>
   <r>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="40"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4931,7 +6642,7 @@
     <x v="43"/>
   </r>
   <r>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="40"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4942,7 +6653,7 @@
     <x v="43"/>
   </r>
   <r>
-    <d v="2011-07-25T00:00:00"/>
+    <x v="41"/>
     <s v="ACC Institute"/>
     <s v="M00321037"/>
     <s v="Annual Membership"/>
@@ -4953,7 +6664,7 @@
     <x v="44"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4964,7 +6675,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4975,7 +6686,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4986,7 +6697,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4997,7 +6708,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="43"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5008,7 +6719,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="43"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5019,7 +6730,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-08-01T00:00:00"/>
+    <x v="44"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP27"/>
     <s v="Internet Service Provider"/>
@@ -5030,7 +6741,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-05T00:00:00"/>
+    <x v="45"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5041,7 +6752,7 @@
     <x v="47"/>
   </r>
   <r>
-    <d v="2011-08-09T00:00:00"/>
+    <x v="46"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5052,7 +6763,7 @@
     <x v="48"/>
   </r>
   <r>
-    <d v="2011-08-13T00:00:00"/>
+    <x v="47"/>
     <s v="XY Traders"/>
     <s v="Invoice 9987"/>
     <s v="Commission"/>
@@ -5063,7 +6774,7 @@
     <x v="49"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5074,7 +6785,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5085,7 +6796,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5096,7 +6807,7 @@
     <x v="51"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="SA Airlines"/>
     <s v="SA11988"/>
     <s v="Travel"/>
@@ -5107,7 +6818,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="49"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5118,7 +6829,7 @@
     <x v="52"/>
   </r>
   <r>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="49"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5129,7 +6840,7 @@
     <x v="52"/>
   </r>
   <r>
-    <d v="2011-08-21T00:00:00"/>
+    <x v="50"/>
     <s v="JSE Brokers"/>
     <s v="Remittance"/>
     <s v="Share investment"/>
@@ -5140,7 +6851,7 @@
     <x v="53"/>
   </r>
   <r>
-    <d v="2011-08-25T00:00:00"/>
+    <x v="51"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5151,7 +6862,7 @@
     <x v="54"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5162,7 +6873,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5173,7 +6884,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5184,7 +6895,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5195,7 +6906,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-27T00:00:00"/>
+    <x v="53"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5206,7 +6917,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5217,7 +6928,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5228,7 +6939,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
@@ -5239,7 +6950,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-09-01T00:00:00"/>
+    <x v="55"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP28"/>
     <s v="Internet Service Provider"/>
@@ -5250,7 +6961,7 @@
     <x v="57"/>
   </r>
   <r>
-    <d v="2011-09-05T00:00:00"/>
+    <x v="56"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5261,7 +6972,7 @@
     <x v="58"/>
   </r>
   <r>
-    <d v="2011-09-13T00:00:00"/>
+    <x v="57"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
@@ -5272,7 +6983,7 @@
     <x v="59"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5283,7 +6994,7 @@
     <x v="60"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5294,7 +7005,7 @@
     <x v="60"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5305,7 +7016,7 @@
     <x v="61"/>
   </r>
   <r>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="59"/>
     <s v="Municipality"/>
     <s v="Statement"/>
     <s v="Rates"/>
@@ -5316,7 +7027,7 @@
     <x v="62"/>
   </r>
   <r>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="59"/>
     <s v="QA Attorneys"/>
     <s v="Invoice"/>
     <s v="Legal advice"/>
@@ -5327,7 +7038,7 @@
     <x v="62"/>
   </r>
   <r>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="60"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5338,7 +7049,7 @@
     <x v="63"/>
   </r>
   <r>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="60"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5349,7 +7060,7 @@
     <x v="63"/>
   </r>
   <r>
-    <d v="2011-09-21T00:00:00"/>
+    <x v="61"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5360,7 +7071,7 @@
     <x v="64"/>
   </r>
   <r>
-    <d v="2011-09-24T00:00:00"/>
+    <x v="62"/>
     <s v="XY Traders"/>
     <s v="Invoice11203"/>
     <s v="Commission"/>
@@ -5371,7 +7082,7 @@
     <x v="65"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5382,7 +7093,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5393,7 +7104,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5404,7 +7115,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5415,7 +7126,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="64"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5426,7 +7137,7 @@
     <x v="66"/>
   </r>
   <r>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="64"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5437,7 +7148,7 @@
     <x v="66"/>
   </r>
   <r>
-    <d v="2011-10-01T00:00:00"/>
+    <x v="65"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP29"/>
     <s v="Internet Service Provider"/>
@@ -5448,7 +7159,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-10-04T00:00:00"/>
+    <x v="66"/>
     <s v="GF Supplies"/>
     <s v="IN1185"/>
     <s v="Consumables"/>
@@ -5459,7 +7170,7 @@
     <x v="68"/>
   </r>
   <r>
-    <d v="2011-10-04T00:00:00"/>
+    <x v="66"/>
     <s v="SA Airlines"/>
     <s v="SA12741"/>
     <s v="Travel"/>
@@ -5470,7 +7181,7 @@
     <x v="69"/>
   </r>
   <r>
-    <d v="2011-10-05T00:00:00"/>
+    <x v="67"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5481,7 +7192,7 @@
     <x v="70"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5492,7 +7203,7 @@
     <x v="71"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5503,7 +7214,7 @@
     <x v="71"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5514,7 +7225,7 @@
     <x v="72"/>
   </r>
   <r>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="69"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5525,7 +7236,7 @@
     <x v="73"/>
   </r>
   <r>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="69"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5536,7 +7247,7 @@
     <x v="73"/>
   </r>
   <r>
-    <d v="2011-10-22T00:00:00"/>
+    <x v="70"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5547,7 +7258,7 @@
     <x v="74"/>
   </r>
   <r>
-    <d v="2011-10-25T00:00:00"/>
+    <x v="71"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5558,7 +7269,7 @@
     <x v="75"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5569,7 +7280,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5580,7 +7291,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5591,7 +7302,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5602,7 +7313,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-28T00:00:00"/>
+    <x v="73"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5613,7 +7324,7 @@
     <x v="77"/>
   </r>
   <r>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="74"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5624,7 +7335,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="74"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5635,7 +7346,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-11-01T00:00:00"/>
+    <x v="75"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP30"/>
     <s v="Internet Service Provider"/>
@@ -5646,7 +7357,7 @@
     <x v="78"/>
   </r>
   <r>
-    <d v="2011-11-05T00:00:00"/>
+    <x v="76"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5657,7 +7368,7 @@
     <x v="79"/>
   </r>
   <r>
-    <d v="2011-11-05T00:00:00"/>
+    <x v="76"/>
     <s v="XY Traders"/>
     <s v="Invoice 12987"/>
     <s v="Commission"/>
@@ -5668,7 +7379,7 @@
     <x v="80"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5679,7 +7390,7 @@
     <x v="81"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5690,7 +7401,7 @@
     <x v="81"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5701,7 +7412,7 @@
     <x v="82"/>
   </r>
   <r>
-    <d v="2011-11-19T00:00:00"/>
+    <x v="78"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5712,7 +7423,7 @@
     <x v="83"/>
   </r>
   <r>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="79"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5723,7 +7434,7 @@
     <x v="84"/>
   </r>
   <r>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="79"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5734,7 +7445,7 @@
     <x v="84"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5745,7 +7456,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5756,7 +7467,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5767,7 +7478,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5778,7 +7489,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="81"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5789,7 +7500,7 @@
     <x v="86"/>
   </r>
   <r>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="81"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5800,7 +7511,7 @@
     <x v="86"/>
   </r>
   <r>
-    <d v="2011-12-01T00:00:00"/>
+    <x v="82"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP31"/>
     <s v="Internet Service Provider"/>
@@ -5811,7 +7522,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2011-12-05T00:00:00"/>
+    <x v="83"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5822,7 +7533,7 @@
     <x v="80"/>
   </r>
   <r>
-    <d v="2011-12-06T00:00:00"/>
+    <x v="84"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5833,7 +7544,7 @@
     <x v="88"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5844,7 +7555,7 @@
     <x v="89"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5855,7 +7566,7 @@
     <x v="89"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5866,7 +7577,7 @@
     <x v="90"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="Newscorp"/>
     <s v="M00353051"/>
     <s v="Subscriptions"/>
@@ -5877,7 +7588,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5888,7 +7599,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="XY Traders"/>
     <s v="Invoice 13432"/>
     <s v="Commission"/>
@@ -5899,7 +7610,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="87"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5910,7 +7621,7 @@
     <x v="92"/>
   </r>
   <r>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="87"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5921,7 +7632,7 @@
     <x v="92"/>
   </r>
   <r>
-    <d v="2011-12-22T00:00:00"/>
+    <x v="88"/>
     <s v="GF Supplies"/>
     <s v="IN1192"/>
     <s v="Consumables"/>
@@ -5932,7 +7643,7 @@
     <x v="93"/>
   </r>
   <r>
-    <d v="2011-12-25T00:00:00"/>
+    <x v="89"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5943,7 +7654,7 @@
     <x v="94"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5954,7 +7665,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5965,7 +7676,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5976,7 +7687,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5987,7 +7698,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="91"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5998,7 +7709,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="91"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6009,7 +7720,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2012-01-01T00:00:00"/>
+    <x v="92"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP32"/>
     <s v="Internet Service Provider"/>
@@ -6020,7 +7731,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-05T00:00:00"/>
+    <x v="93"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -6031,7 +7742,7 @@
     <x v="97"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6042,7 +7753,7 @@
     <x v="98"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6053,7 +7764,7 @@
     <x v="98"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -6064,7 +7775,7 @@
     <x v="99"/>
   </r>
   <r>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="95"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -6075,7 +7786,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="96"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6086,7 +7797,7 @@
     <x v="100"/>
   </r>
   <r>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="96"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6097,7 +7808,7 @@
     <x v="100"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -6108,7 +7819,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -6119,7 +7830,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -6130,7 +7841,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -6141,7 +7852,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Training"/>
@@ -6152,7 +7863,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-28T00:00:00"/>
+    <x v="98"/>
     <s v="XY Traders"/>
     <s v="Invoice 14278"/>
     <s v="Commission"/>
@@ -6163,7 +7874,7 @@
     <x v="102"/>
   </r>
   <r>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="99"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6174,7 +7885,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="99"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6185,7 +7896,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-02-01T00:00:00"/>
+    <x v="100"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP33"/>
     <s v="Internet Service Provider"/>
@@ -6196,7 +7907,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-05T00:00:00"/>
+    <x v="101"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -6207,7 +7918,7 @@
     <x v="104"/>
   </r>
   <r>
-    <d v="2012-02-11T00:00:00"/>
+    <x v="102"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -6218,7 +7929,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6229,7 +7940,7 @@
     <x v="105"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6240,7 +7951,7 @@
     <x v="105"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -6251,7 +7962,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="104"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6262,7 +7973,7 @@
     <x v="106"/>
   </r>
   <r>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="104"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6273,7 +7984,7 @@
     <x v="106"/>
   </r>
   <r>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="105"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -6284,7 +7995,7 @@
     <x v="107"/>
   </r>
   <r>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="105"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -6295,7 +8006,7 @@
     <x v="107"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="DF Equipment"/>
     <s v="Invoice"/>
     <s v="Office equipment"/>
@@ -6306,7 +8017,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -6317,7 +8028,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -6328,7 +8039,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -6339,7 +8050,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -6350,7 +8061,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6361,7 +8072,7 @@
     <x v="109"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6372,7 +8083,7 @@
     <x v="109"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
@@ -6386,10 +8097,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9B8C09A-D89A-4CFB-B9CB-287A9FCBEA7E}" name="PivotTable9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9B8C09A-D89A-4CFB-B9CB-287A9FCBEA7E}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="109">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6404,101 +8227,101 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="111">
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="19"/>
-        <item h="1" x="9"/>
-        <item h="1" x="13"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="24"/>
-        <item h="1" x="26"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="25"/>
-        <item h="1" x="28"/>
-        <item h="1" x="23"/>
-        <item h="1" x="29"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="27"/>
-        <item h="1" x="30"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="41"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="50"/>
-        <item h="1" x="42"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="44"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="46"/>
-        <item h="1" x="51"/>
-        <item h="1" x="58"/>
-        <item h="1" x="49"/>
-        <item h="1" x="60"/>
-        <item h="1" x="62"/>
-        <item h="1" x="63"/>
-        <item h="1" x="64"/>
-        <item h="1" x="56"/>
-        <item h="1" x="66"/>
-        <item h="1" x="57"/>
-        <item h="1" x="61"/>
-        <item h="1" x="69"/>
-        <item h="1" x="70"/>
-        <item h="1" x="59"/>
-        <item h="1" x="71"/>
-        <item h="1" x="73"/>
-        <item h="1" x="65"/>
-        <item h="1" x="75"/>
-        <item h="1" x="76"/>
-        <item h="1" x="77"/>
-        <item h="1" x="67"/>
-        <item h="1" x="72"/>
-        <item h="1" x="68"/>
-        <item h="1" x="79"/>
-        <item h="1" x="81"/>
-        <item h="1" x="83"/>
-        <item h="1" x="84"/>
-        <item h="1" x="74"/>
-        <item h="1" x="85"/>
-        <item h="1" x="86"/>
-        <item h="1" x="78"/>
-        <item h="1" x="82"/>
-        <item h="1" x="80"/>
-        <item h="1" x="88"/>
-        <item h="1" x="89"/>
-        <item h="1" x="92"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="87"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="56"/>
+        <item x="66"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="59"/>
+        <item x="71"/>
+        <item x="73"/>
+        <item x="65"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="67"/>
+        <item x="72"/>
+        <item x="68"/>
+        <item x="79"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="74"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="78"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="92"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="87"/>
         <item x="90"/>
         <item x="97"/>
         <item x="98"/>
@@ -6515,11 +8338,11 @@
         <item x="108"/>
         <item x="102"/>
         <item x="109"/>
-        <item h="1" x="103"/>
+        <item x="103"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6538,7 +8361,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6549,7 +8372,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item h="1" sd="0" x="0"/>
         <item h="1" sd="0" x="1"/>
@@ -6558,16 +8381,97 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="4">
-    <field x="11"/>
-    <field x="10"/>
-    <field x="9"/>
+  <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="17">
     <i>
-      <x v="2"/>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
     </i>
     <i t="grand">
       <x/>
@@ -6591,92 +8495,212 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="8" baseItem="93" numFmtId="44"/>
   </dataFields>
-  <formats count="20">
-    <format dxfId="39">
+  <formats count="31">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="28">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="20">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="1">
+          <reference field="6" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    <format dxfId="10">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="6" count="0"/>
+          <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="28">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="1">
+          <reference field="6" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="6" count="0"/>
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
         </references>
       </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+    </chartFormat>
+    <chartFormat chart="0" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6688,32 +8712,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="8" type="dateNewerThanOrEqual" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="40909"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7036,265 +9047,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>85</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>11</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>72</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>13</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>60</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>12</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>95</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>88</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>99</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>11</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>75</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>13</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>100</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>13</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>75</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>15</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>85</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>11</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>85</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20">
         <f>MODE(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <f>MODE(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <f>COUNT(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <f>COUNT(D4:D14)</f>
         <v>11</v>
       </c>
@@ -7309,43 +9320,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5134AC-A3AF-4313-B645-03D1A11F4805}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="16.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -7353,36 +9380,247 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="30">
+        <v>40910</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>40913</v>
+      </c>
+      <c r="B6" s="29">
+        <v>340</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>40923</v>
+      </c>
+      <c r="B7" s="29">
+        <v>80</v>
+      </c>
+      <c r="C7" s="29">
+        <v>35</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>40924</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1392</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>105</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>40928</v>
+      </c>
+      <c r="B9" s="29">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>-20000</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>40929</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
+        <v>61</v>
+      </c>
+      <c r="E10" s="29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>40934</v>
+      </c>
+      <c r="B11" s="29">
+        <v>6720</v>
+      </c>
+      <c r="C11" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>40939</v>
+      </c>
+      <c r="B12" s="29">
+        <v>738.25</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>-170</v>
+      </c>
+      <c r="E12" s="29">
+        <v>568.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>40941</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>40944</v>
+      </c>
+      <c r="B14" s="29">
+        <v>340</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>40954</v>
+      </c>
+      <c r="B15" s="29">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29">
+        <v>35</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>40959</v>
+      </c>
+      <c r="B16" s="29">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="29">
+        <v>-20000</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>40964</v>
+      </c>
+      <c r="B17" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
+        <v>75</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>40965</v>
+      </c>
+      <c r="B18" s="29">
+        <v>6720</v>
+      </c>
+      <c r="C18" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>40966</v>
+      </c>
+      <c r="B19" s="29">
+        <v>514</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>40968</v>
+      </c>
+      <c r="B20" s="29">
+        <v>3770</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
+        <v>-70</v>
+      </c>
+      <c r="E20" s="29">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="29">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C21" s="29">
         <v>70</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D21" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
-        <v>64965.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="30">
-        <v>64894.25</v>
-      </c>
-      <c r="C6" s="30">
-        <v>70</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="E21" s="29">
         <v>64965.25</v>
       </c>
     </row>
@@ -7421,7 +9659,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7438,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
@@ -13484,7 +15722,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13530,24 +15768,24 @@
       <c r="A4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>2000</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>0.21</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>3</v>
       </c>
-      <c r="E4" s="26">
-        <f>SUM(B4*C4)</f>
+      <c r="E4" s="25">
+        <f>(B4*C4)</f>
         <v>420</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <f>SUM(B4+E4)</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f>SUM(F4/D4)</f>
         <v>806.66666666666663</v>
       </c>
@@ -13556,25 +15794,25 @@
       <c r="A5" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>450</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>0.25</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:E8" si="0">SUM(B5*C5)</f>
+      <c r="E5" s="25">
+        <f>SUM(B5*C5)</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="27">
-        <f t="shared" ref="F5:F8" si="1">SUM(B5+E5)</f>
+      <c r="F5" s="26">
+        <f t="shared" ref="F5:F8" si="0">SUM(B5+E5)</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="27">
-        <f t="shared" ref="G5:G8" si="2">SUM(F5/D5)</f>
+      <c r="G5" s="26">
+        <f t="shared" ref="G5:G8" si="1">SUM(F5/D5)</f>
         <v>187.5</v>
       </c>
     </row>
@@ -13582,25 +15820,25 @@
       <c r="A6" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>975</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>0.27</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
+        <f t="shared" ref="E6:E8" si="2">SUM(B6*C6)</f>
+        <v>263.25</v>
+      </c>
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
-        <v>263.25</v>
-      </c>
-      <c r="F6" s="27">
+        <v>1238.25</v>
+      </c>
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
-        <v>1238.25</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
@@ -13608,25 +15846,25 @@
       <c r="A7" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>1500</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>0.15</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>3</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F7" s="27">
+        <v>1725</v>
+      </c>
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
-        <v>1725</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
@@ -13634,25 +15872,25 @@
       <c r="A8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>780</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.25</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="F8" s="27">
+        <v>975</v>
+      </c>
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
-        <v>975</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>

--- a/Week 2/DanielLoehnert_Week2Homework.xlsx
+++ b/Week 2/DanielLoehnert_Week2Homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fd9fa18b89f308/Desktop/Savvy Coders/Homework/Week 2 Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fd9fa18b89f308/Desktop/SavvyCoders/Homework/Week 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{9F96D4B5-1D50-4E96-9B70-31C426E085DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C0BA87-DD3B-40E9-9088-742096EF69AF}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{9F96D4B5-1D50-4E96-9B70-31C426E085DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4269C08C-396C-4EC3-B00E-1B7E2544124A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="170">
   <si>
     <t>Expenses</t>
   </si>
@@ -542,9 +542,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>Tax Code</t>
   </si>
   <si>
@@ -666,7 +663,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -711,9 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -738,6 +732,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -745,126 +748,2751 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+  <dxfs count="915">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1067,6 +3695,1297 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1100,30 +5019,117 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$5:$B$6</c:f>
+              <c:f>Payments!$B$5:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>64894.25</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>738.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001B-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1153,30 +5159,90 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$C$5:$C$6</c:f>
+              <c:f>Payments!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001C-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,30 +5272,87 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
+              <c:f>Payments!$A$5:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$5:$D$6</c:f>
+              <c:f>Payments!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="16"/>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D374-4749-9D77-C0F14A062063}"/>
+              <c16:uniqueId val="{0000001D-0593-47A4-AA46-B576117A74F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,6 +5883,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Balances</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,9 +8042,119 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I210" sheet="Expenses"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="15">
     <cacheField name="Document Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00" count="108">
+        <d v="2011-02-14T00:00:00"/>
+        <d v="2011-03-01T00:00:00"/>
+        <d v="2011-03-02T00:00:00"/>
+        <d v="2011-03-05T00:00:00"/>
+        <d v="2011-03-15T00:00:00"/>
+        <d v="2011-03-18T00:00:00"/>
+        <d v="2011-03-20T00:00:00"/>
+        <d v="2011-03-26T00:00:00"/>
+        <d v="2011-03-31T00:00:00"/>
+        <d v="2011-04-01T00:00:00"/>
+        <d v="2011-04-05T00:00:00"/>
+        <d v="2011-04-12T00:00:00"/>
+        <d v="2011-04-15T00:00:00"/>
+        <d v="2011-04-20T00:00:00"/>
+        <d v="2011-04-25T00:00:00"/>
+        <d v="2011-04-26T00:00:00"/>
+        <d v="2011-04-29T00:00:00"/>
+        <d v="2011-04-30T00:00:00"/>
+        <d v="2011-05-01T00:00:00"/>
+        <d v="2011-05-05T00:00:00"/>
+        <d v="2011-05-07T00:00:00"/>
+        <d v="2011-05-15T00:00:00"/>
+        <d v="2011-05-20T00:00:00"/>
+        <d v="2011-05-26T00:00:00"/>
+        <d v="2011-05-29T00:00:00"/>
+        <d v="2011-05-31T00:00:00"/>
+        <d v="2011-06-01T00:00:00"/>
+        <d v="2011-06-05T00:00:00"/>
+        <d v="2011-06-15T00:00:00"/>
+        <d v="2011-06-20T00:00:00"/>
+        <d v="2011-06-22T00:00:00"/>
+        <d v="2011-06-25T00:00:00"/>
+        <d v="2011-06-26T00:00:00"/>
+        <d v="2011-06-30T00:00:00"/>
+        <d v="2011-07-01T00:00:00"/>
+        <d v="2011-07-02T00:00:00"/>
+        <d v="2011-07-05T00:00:00"/>
+        <d v="2011-07-15T00:00:00"/>
+        <d v="2011-07-16T00:00:00"/>
+        <d v="2011-07-17T00:00:00"/>
+        <d v="2011-07-20T00:00:00"/>
+        <d v="2011-07-25T00:00:00"/>
+        <d v="2011-07-26T00:00:00"/>
+        <d v="2011-07-31T00:00:00"/>
+        <d v="2011-08-01T00:00:00"/>
+        <d v="2011-08-05T00:00:00"/>
+        <d v="2011-08-09T00:00:00"/>
+        <d v="2011-08-13T00:00:00"/>
+        <d v="2011-08-15T00:00:00"/>
+        <d v="2011-08-20T00:00:00"/>
+        <d v="2011-08-21T00:00:00"/>
+        <d v="2011-08-25T00:00:00"/>
+        <d v="2011-08-26T00:00:00"/>
+        <d v="2011-08-27T00:00:00"/>
+        <d v="2011-08-31T00:00:00"/>
+        <d v="2011-09-01T00:00:00"/>
+        <d v="2011-09-05T00:00:00"/>
+        <d v="2011-09-13T00:00:00"/>
+        <d v="2011-09-15T00:00:00"/>
+        <d v="2011-09-18T00:00:00"/>
+        <d v="2011-09-20T00:00:00"/>
+        <d v="2011-09-21T00:00:00"/>
+        <d v="2011-09-24T00:00:00"/>
+        <d v="2011-09-26T00:00:00"/>
+        <d v="2011-09-30T00:00:00"/>
+        <d v="2011-10-01T00:00:00"/>
+        <d v="2011-10-04T00:00:00"/>
+        <d v="2011-10-05T00:00:00"/>
+        <d v="2011-10-15T00:00:00"/>
+        <d v="2011-10-20T00:00:00"/>
+        <d v="2011-10-22T00:00:00"/>
+        <d v="2011-10-25T00:00:00"/>
+        <d v="2011-10-26T00:00:00"/>
+        <d v="2011-10-28T00:00:00"/>
+        <d v="2011-10-31T00:00:00"/>
+        <d v="2011-11-01T00:00:00"/>
+        <d v="2011-11-05T00:00:00"/>
+        <d v="2011-11-15T00:00:00"/>
+        <d v="2011-11-19T00:00:00"/>
+        <d v="2011-11-20T00:00:00"/>
+        <d v="2011-11-26T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-17T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
+        <d v="2011-12-22T00:00:00"/>
+        <d v="2011-12-25T00:00:00"/>
+        <d v="2011-12-26T00:00:00"/>
+        <d v="2011-12-31T00:00:00"/>
+        <d v="2012-01-01T00:00:00"/>
+        <d v="2012-01-05T00:00:00"/>
+        <d v="2012-01-15T00:00:00"/>
+        <d v="2012-01-16T00:00:00"/>
+        <d v="2012-01-20T00:00:00"/>
+        <d v="2012-01-26T00:00:00"/>
+        <d v="2012-01-28T00:00:00"/>
+        <d v="2012-01-31T00:00:00"/>
+        <d v="2012-02-01T00:00:00"/>
+        <d v="2012-02-05T00:00:00"/>
+        <d v="2012-02-11T00:00:00"/>
+        <d v="2012-02-15T00:00:00"/>
+        <d v="2012-02-20T00:00:00"/>
+        <d v="2012-02-25T00:00:00"/>
+        <d v="2012-02-26T00:00:00"/>
+        <d v="2012-02-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="14"/>
     </cacheField>
     <cacheField name="Supplier" numFmtId="0">
       <sharedItems/>
@@ -4083,6 +8341,51 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
+    <cacheField name="Months (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2/14/2011"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;2/14/2011"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Document Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2011-02-14T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;2/14/2011"/>
+          <s v="2011"/>
+          <s v="2012"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -4095,7 +8398,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
   <r>
-    <d v="2011-02-14T00:00:00"/>
+    <x v="0"/>
     <s v="XY Solutions"/>
     <s v="S77782"/>
     <s v="Opening Balance"/>
@@ -4106,7 +8409,7 @@
     <x v="0"/>
   </r>
   <r>
-    <d v="2011-03-01T00:00:00"/>
+    <x v="1"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP22"/>
     <s v="Internet Service Provider"/>
@@ -4117,7 +8420,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-03-02T00:00:00"/>
+    <x v="2"/>
     <s v="Newscorp"/>
     <s v="I381119"/>
     <s v="Subscriptions"/>
@@ -4128,7 +8431,7 @@
     <x v="2"/>
   </r>
   <r>
-    <d v="2011-03-05T00:00:00"/>
+    <x v="3"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4139,7 +8442,7 @@
     <x v="3"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4150,7 +8453,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4161,7 +8464,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4172,7 +8475,7 @@
     <x v="5"/>
   </r>
   <r>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4183,7 +8486,7 @@
     <x v="4"/>
   </r>
   <r>
-    <d v="2011-03-18T00:00:00"/>
+    <x v="5"/>
     <s v="QQ International"/>
     <s v="TR6998"/>
     <s v="Parking"/>
@@ -4194,7 +8497,7 @@
     <x v="6"/>
   </r>
   <r>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="6"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4205,7 +8508,7 @@
     <x v="7"/>
   </r>
   <r>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="6"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4216,7 +8519,7 @@
     <x v="7"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4227,7 +8530,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4238,7 +8541,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4249,7 +8552,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="7"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4260,7 +8563,7 @@
     <x v="8"/>
   </r>
   <r>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="8"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4271,7 +8574,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="8"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4282,7 +8585,7 @@
     <x v="1"/>
   </r>
   <r>
-    <d v="2011-04-01T00:00:00"/>
+    <x v="9"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP23"/>
     <s v="Internet Service Provider"/>
@@ -4293,7 +8596,7 @@
     <x v="9"/>
   </r>
   <r>
-    <d v="2011-04-05T00:00:00"/>
+    <x v="10"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4304,7 +8607,7 @@
     <x v="10"/>
   </r>
   <r>
-    <d v="2011-04-12T00:00:00"/>
+    <x v="11"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4315,7 +8618,7 @@
     <x v="11"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4326,7 +8629,7 @@
     <x v="12"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4337,7 +8640,7 @@
     <x v="12"/>
   </r>
   <r>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4348,7 +8651,7 @@
     <x v="13"/>
   </r>
   <r>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="13"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4359,7 +8662,7 @@
     <x v="14"/>
   </r>
   <r>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="13"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4370,7 +8673,7 @@
     <x v="14"/>
   </r>
   <r>
-    <d v="2011-04-25T00:00:00"/>
+    <x v="14"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -4381,7 +8684,7 @@
     <x v="15"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4392,7 +8695,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="Furniture City"/>
     <s v="Invoice"/>
     <s v="Furniture"/>
@@ -4403,7 +8706,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4414,7 +8717,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4425,7 +8728,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="15"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4436,7 +8739,7 @@
     <x v="16"/>
   </r>
   <r>
-    <d v="2011-04-29T00:00:00"/>
+    <x v="16"/>
     <s v="GF Supplies"/>
     <s v="IN1179"/>
     <s v="Consumables"/>
@@ -4447,7 +8750,7 @@
     <x v="18"/>
   </r>
   <r>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="17"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4458,7 +8761,7 @@
     <x v="19"/>
   </r>
   <r>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="17"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4469,7 +8772,7 @@
     <x v="19"/>
   </r>
   <r>
-    <d v="2011-05-01T00:00:00"/>
+    <x v="18"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP24"/>
     <s v="Internet Service Provider"/>
@@ -4480,7 +8783,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-01T00:00:00"/>
+    <x v="18"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
@@ -4491,7 +8794,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-05T00:00:00"/>
+    <x v="19"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4502,7 +8805,7 @@
     <x v="21"/>
   </r>
   <r>
-    <d v="2011-05-07T00:00:00"/>
+    <x v="20"/>
     <s v="City Lodge"/>
     <s v="S50037"/>
     <s v="Accommodation"/>
@@ -4513,7 +8816,7 @@
     <x v="22"/>
   </r>
   <r>
-    <d v="2011-05-07T00:00:00"/>
+    <x v="20"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -4524,7 +8827,7 @@
     <x v="23"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4535,7 +8838,7 @@
     <x v="24"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4546,7 +8849,7 @@
     <x v="24"/>
   </r>
   <r>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="21"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4557,7 +8860,7 @@
     <x v="25"/>
   </r>
   <r>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="22"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4568,7 +8871,7 @@
     <x v="26"/>
   </r>
   <r>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="22"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4579,7 +8882,7 @@
     <x v="26"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4590,7 +8893,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4601,7 +8904,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4612,7 +8915,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="23"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4623,7 +8926,7 @@
     <x v="17"/>
   </r>
   <r>
-    <d v="2011-05-29T00:00:00"/>
+    <x v="24"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4634,7 +8937,7 @@
     <x v="18"/>
   </r>
   <r>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="25"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4645,7 +8948,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="25"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4656,7 +8959,7 @@
     <x v="20"/>
   </r>
   <r>
-    <d v="2011-06-01T00:00:00"/>
+    <x v="26"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP25"/>
     <s v="Internet Service Provider"/>
@@ -4667,7 +8970,7 @@
     <x v="27"/>
   </r>
   <r>
-    <d v="2011-06-05T00:00:00"/>
+    <x v="27"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4678,7 +8981,7 @@
     <x v="28"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4689,7 +8992,7 @@
     <x v="29"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4700,7 +9003,7 @@
     <x v="29"/>
   </r>
   <r>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="28"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4711,7 +9014,7 @@
     <x v="30"/>
   </r>
   <r>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="29"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4722,7 +9025,7 @@
     <x v="31"/>
   </r>
   <r>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="29"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4733,7 +9036,7 @@
     <x v="31"/>
   </r>
   <r>
-    <d v="2011-06-22T00:00:00"/>
+    <x v="30"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4744,7 +9047,7 @@
     <x v="32"/>
   </r>
   <r>
-    <d v="2011-06-25T00:00:00"/>
+    <x v="31"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -4755,7 +9058,7 @@
     <x v="33"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4766,7 +9069,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4777,7 +9080,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4788,7 +9091,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4799,7 +9102,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="32"/>
     <s v="SA Airlines"/>
     <s v="SA11235"/>
     <s v="Travel"/>
@@ -4810,7 +9113,7 @@
     <x v="34"/>
   </r>
   <r>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="33"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4821,7 +9124,7 @@
     <x v="35"/>
   </r>
   <r>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="33"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -4832,7 +9135,7 @@
     <x v="35"/>
   </r>
   <r>
-    <d v="2011-07-01T00:00:00"/>
+    <x v="34"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP26"/>
     <s v="Internet Service Provider"/>
@@ -4843,7 +9146,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-07-02T00:00:00"/>
+    <x v="35"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -4854,7 +9157,7 @@
     <x v="37"/>
   </r>
   <r>
-    <d v="2011-07-05T00:00:00"/>
+    <x v="36"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -4865,7 +9168,7 @@
     <x v="38"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4876,7 +9179,7 @@
     <x v="39"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -4887,7 +9190,7 @@
     <x v="39"/>
   </r>
   <r>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="37"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -4898,7 +9201,7 @@
     <x v="40"/>
   </r>
   <r>
-    <d v="2011-07-16T00:00:00"/>
+    <x v="38"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -4909,7 +9212,7 @@
     <x v="41"/>
   </r>
   <r>
-    <d v="2011-07-17T00:00:00"/>
+    <x v="39"/>
     <s v="GF Supplies"/>
     <s v="IN1181"/>
     <s v="Consumables"/>
@@ -4920,7 +9223,7 @@
     <x v="42"/>
   </r>
   <r>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="40"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4931,7 +9234,7 @@
     <x v="43"/>
   </r>
   <r>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="40"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -4942,7 +9245,7 @@
     <x v="43"/>
   </r>
   <r>
-    <d v="2011-07-25T00:00:00"/>
+    <x v="41"/>
     <s v="ACC Institute"/>
     <s v="M00321037"/>
     <s v="Annual Membership"/>
@@ -4953,7 +9256,7 @@
     <x v="44"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -4964,7 +9267,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -4975,7 +9278,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -4986,7 +9289,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="42"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -4997,7 +9300,7 @@
     <x v="45"/>
   </r>
   <r>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="43"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5008,7 +9311,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="43"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5019,7 +9322,7 @@
     <x v="36"/>
   </r>
   <r>
-    <d v="2011-08-01T00:00:00"/>
+    <x v="44"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP27"/>
     <s v="Internet Service Provider"/>
@@ -5030,7 +9333,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-05T00:00:00"/>
+    <x v="45"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5041,7 +9344,7 @@
     <x v="47"/>
   </r>
   <r>
-    <d v="2011-08-09T00:00:00"/>
+    <x v="46"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5052,7 +9355,7 @@
     <x v="48"/>
   </r>
   <r>
-    <d v="2011-08-13T00:00:00"/>
+    <x v="47"/>
     <s v="XY Traders"/>
     <s v="Invoice 9987"/>
     <s v="Commission"/>
@@ -5063,7 +9366,7 @@
     <x v="49"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5074,7 +9377,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5085,7 +9388,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5096,7 +9399,7 @@
     <x v="51"/>
   </r>
   <r>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="48"/>
     <s v="SA Airlines"/>
     <s v="SA11988"/>
     <s v="Travel"/>
@@ -5107,7 +9410,7 @@
     <x v="50"/>
   </r>
   <r>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="49"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5118,7 +9421,7 @@
     <x v="52"/>
   </r>
   <r>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="49"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5129,7 +9432,7 @@
     <x v="52"/>
   </r>
   <r>
-    <d v="2011-08-21T00:00:00"/>
+    <x v="50"/>
     <s v="JSE Brokers"/>
     <s v="Remittance"/>
     <s v="Share investment"/>
@@ -5140,7 +9443,7 @@
     <x v="53"/>
   </r>
   <r>
-    <d v="2011-08-25T00:00:00"/>
+    <x v="51"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5151,7 +9454,7 @@
     <x v="54"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5162,7 +9465,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5173,7 +9476,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5184,7 +9487,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="52"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5195,7 +9498,7 @@
     <x v="55"/>
   </r>
   <r>
-    <d v="2011-08-27T00:00:00"/>
+    <x v="53"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5206,7 +9509,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5217,7 +9520,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5228,7 +9531,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="54"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
@@ -5239,7 +9542,7 @@
     <x v="46"/>
   </r>
   <r>
-    <d v="2011-09-01T00:00:00"/>
+    <x v="55"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP28"/>
     <s v="Internet Service Provider"/>
@@ -5250,7 +9553,7 @@
     <x v="57"/>
   </r>
   <r>
-    <d v="2011-09-05T00:00:00"/>
+    <x v="56"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5261,7 +9564,7 @@
     <x v="58"/>
   </r>
   <r>
-    <d v="2011-09-13T00:00:00"/>
+    <x v="57"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
@@ -5272,7 +9575,7 @@
     <x v="59"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5283,7 +9586,7 @@
     <x v="60"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5294,7 +9597,7 @@
     <x v="60"/>
   </r>
   <r>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="58"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5305,7 +9608,7 @@
     <x v="61"/>
   </r>
   <r>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="59"/>
     <s v="Municipality"/>
     <s v="Statement"/>
     <s v="Rates"/>
@@ -5316,7 +9619,7 @@
     <x v="62"/>
   </r>
   <r>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="59"/>
     <s v="QA Attorneys"/>
     <s v="Invoice"/>
     <s v="Legal advice"/>
@@ -5327,7 +9630,7 @@
     <x v="62"/>
   </r>
   <r>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="60"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5338,7 +9641,7 @@
     <x v="63"/>
   </r>
   <r>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="60"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5349,7 +9652,7 @@
     <x v="63"/>
   </r>
   <r>
-    <d v="2011-09-21T00:00:00"/>
+    <x v="61"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5360,7 +9663,7 @@
     <x v="64"/>
   </r>
   <r>
-    <d v="2011-09-24T00:00:00"/>
+    <x v="62"/>
     <s v="XY Traders"/>
     <s v="Invoice11203"/>
     <s v="Commission"/>
@@ -5371,7 +9674,7 @@
     <x v="65"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5382,7 +9685,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5393,7 +9696,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5404,7 +9707,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="63"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5415,7 +9718,7 @@
     <x v="56"/>
   </r>
   <r>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="64"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5426,7 +9729,7 @@
     <x v="66"/>
   </r>
   <r>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="64"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5437,7 +9740,7 @@
     <x v="66"/>
   </r>
   <r>
-    <d v="2011-10-01T00:00:00"/>
+    <x v="65"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP29"/>
     <s v="Internet Service Provider"/>
@@ -5448,7 +9751,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-10-04T00:00:00"/>
+    <x v="66"/>
     <s v="GF Supplies"/>
     <s v="IN1185"/>
     <s v="Consumables"/>
@@ -5459,7 +9762,7 @@
     <x v="68"/>
   </r>
   <r>
-    <d v="2011-10-04T00:00:00"/>
+    <x v="66"/>
     <s v="SA Airlines"/>
     <s v="SA12741"/>
     <s v="Travel"/>
@@ -5470,7 +9773,7 @@
     <x v="69"/>
   </r>
   <r>
-    <d v="2011-10-05T00:00:00"/>
+    <x v="67"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5481,7 +9784,7 @@
     <x v="70"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5492,7 +9795,7 @@
     <x v="71"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5503,7 +9806,7 @@
     <x v="71"/>
   </r>
   <r>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="68"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5514,7 +9817,7 @@
     <x v="72"/>
   </r>
   <r>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="69"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5525,7 +9828,7 @@
     <x v="73"/>
   </r>
   <r>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="69"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5536,7 +9839,7 @@
     <x v="73"/>
   </r>
   <r>
-    <d v="2011-10-22T00:00:00"/>
+    <x v="70"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5547,7 +9850,7 @@
     <x v="74"/>
   </r>
   <r>
-    <d v="2011-10-25T00:00:00"/>
+    <x v="71"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5558,7 +9861,7 @@
     <x v="75"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5569,7 +9872,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5580,7 +9883,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5591,7 +9894,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="72"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5602,7 +9905,7 @@
     <x v="76"/>
   </r>
   <r>
-    <d v="2011-10-28T00:00:00"/>
+    <x v="73"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5613,7 +9916,7 @@
     <x v="77"/>
   </r>
   <r>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="74"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5624,7 +9927,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="74"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5635,7 +9938,7 @@
     <x v="67"/>
   </r>
   <r>
-    <d v="2011-11-01T00:00:00"/>
+    <x v="75"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP30"/>
     <s v="Internet Service Provider"/>
@@ -5646,7 +9949,7 @@
     <x v="78"/>
   </r>
   <r>
-    <d v="2011-11-05T00:00:00"/>
+    <x v="76"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5657,7 +9960,7 @@
     <x v="79"/>
   </r>
   <r>
-    <d v="2011-11-05T00:00:00"/>
+    <x v="76"/>
     <s v="XY Traders"/>
     <s v="Invoice 12987"/>
     <s v="Commission"/>
@@ -5668,7 +9971,7 @@
     <x v="80"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5679,7 +9982,7 @@
     <x v="81"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5690,7 +9993,7 @@
     <x v="81"/>
   </r>
   <r>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="77"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5701,7 +10004,7 @@
     <x v="82"/>
   </r>
   <r>
-    <d v="2011-11-19T00:00:00"/>
+    <x v="78"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5712,7 +10015,7 @@
     <x v="83"/>
   </r>
   <r>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="79"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5723,7 +10026,7 @@
     <x v="84"/>
   </r>
   <r>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="79"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5734,7 +10037,7 @@
     <x v="84"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5745,7 +10048,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5756,7 +10059,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5767,7 +10070,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="80"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5778,7 +10081,7 @@
     <x v="85"/>
   </r>
   <r>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="81"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5789,7 +10092,7 @@
     <x v="86"/>
   </r>
   <r>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="81"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5800,7 +10103,7 @@
     <x v="86"/>
   </r>
   <r>
-    <d v="2011-12-01T00:00:00"/>
+    <x v="82"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP31"/>
     <s v="Internet Service Provider"/>
@@ -5811,7 +10114,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2011-12-05T00:00:00"/>
+    <x v="83"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -5822,7 +10125,7 @@
     <x v="80"/>
   </r>
   <r>
-    <d v="2011-12-06T00:00:00"/>
+    <x v="84"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -5833,7 +10136,7 @@
     <x v="88"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5844,7 +10147,7 @@
     <x v="89"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -5855,7 +10158,7 @@
     <x v="89"/>
   </r>
   <r>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="85"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -5866,7 +10169,7 @@
     <x v="90"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="Newscorp"/>
     <s v="M00353051"/>
     <s v="Subscriptions"/>
@@ -5877,7 +10180,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -5888,7 +10191,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-17T00:00:00"/>
+    <x v="86"/>
     <s v="XY Traders"/>
     <s v="Invoice 13432"/>
     <s v="Commission"/>
@@ -5899,7 +10202,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="87"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5910,7 +10213,7 @@
     <x v="92"/>
   </r>
   <r>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="87"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -5921,7 +10224,7 @@
     <x v="92"/>
   </r>
   <r>
-    <d v="2011-12-22T00:00:00"/>
+    <x v="88"/>
     <s v="GF Supplies"/>
     <s v="IN1192"/>
     <s v="Consumables"/>
@@ -5932,7 +10235,7 @@
     <x v="93"/>
   </r>
   <r>
-    <d v="2011-12-25T00:00:00"/>
+    <x v="89"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -5943,7 +10246,7 @@
     <x v="94"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -5954,7 +10257,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -5965,7 +10268,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -5976,7 +10279,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="90"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -5987,7 +10290,7 @@
     <x v="95"/>
   </r>
   <r>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="91"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -5998,7 +10301,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="91"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6009,7 +10312,7 @@
     <x v="87"/>
   </r>
   <r>
-    <d v="2012-01-01T00:00:00"/>
+    <x v="92"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP32"/>
     <s v="Internet Service Provider"/>
@@ -6020,7 +10323,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-05T00:00:00"/>
+    <x v="93"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -6031,7 +10334,7 @@
     <x v="97"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6042,7 +10345,7 @@
     <x v="98"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6053,7 +10356,7 @@
     <x v="98"/>
   </r>
   <r>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="94"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -6064,7 +10367,7 @@
     <x v="99"/>
   </r>
   <r>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="95"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -6075,7 +10378,7 @@
     <x v="91"/>
   </r>
   <r>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="96"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6086,7 +10389,7 @@
     <x v="100"/>
   </r>
   <r>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="96"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6097,7 +10400,7 @@
     <x v="100"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -6108,7 +10411,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -6119,7 +10422,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -6130,7 +10433,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -6141,7 +10444,7 @@
     <x v="101"/>
   </r>
   <r>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="97"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Training"/>
@@ -6152,7 +10455,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-28T00:00:00"/>
+    <x v="98"/>
     <s v="XY Traders"/>
     <s v="Invoice 14278"/>
     <s v="Commission"/>
@@ -6163,7 +10466,7 @@
     <x v="102"/>
   </r>
   <r>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="99"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6174,7 +10477,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="99"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6185,7 +10488,7 @@
     <x v="96"/>
   </r>
   <r>
-    <d v="2012-02-01T00:00:00"/>
+    <x v="100"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP33"/>
     <s v="Internet Service Provider"/>
@@ -6196,7 +10499,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-05T00:00:00"/>
+    <x v="101"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
@@ -6207,7 +10510,7 @@
     <x v="104"/>
   </r>
   <r>
-    <d v="2012-02-11T00:00:00"/>
+    <x v="102"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
@@ -6218,7 +10521,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6229,7 +10532,7 @@
     <x v="105"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
@@ -6240,7 +10543,7 @@
     <x v="105"/>
   </r>
   <r>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="103"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
@@ -6251,7 +10554,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="104"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6262,7 +10565,7 @@
     <x v="106"/>
   </r>
   <r>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="104"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
@@ -6273,7 +10576,7 @@
     <x v="106"/>
   </r>
   <r>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="105"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
@@ -6284,7 +10587,7 @@
     <x v="107"/>
   </r>
   <r>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="105"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
@@ -6295,7 +10598,7 @@
     <x v="107"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="DF Equipment"/>
     <s v="Invoice"/>
     <s v="Office equipment"/>
@@ -6306,7 +10609,7 @@
     <x v="103"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
@@ -6317,7 +10620,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
@@ -6328,7 +10631,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
@@ -6339,7 +10642,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="106"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
@@ -6350,7 +10653,7 @@
     <x v="108"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6361,7 +10664,7 @@
     <x v="109"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
@@ -6372,7 +10675,7 @@
     <x v="109"/>
   </r>
   <r>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="107"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
@@ -6386,10 +10689,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9B8C09A-D89A-4CFB-B9CB-287A9FCBEA7E}" name="PivotTable9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9B8C09A-D89A-4CFB-B9CB-287A9FCBEA7E}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="109">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6404,101 +10819,101 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="111">
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="19"/>
-        <item h="1" x="9"/>
-        <item h="1" x="13"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="24"/>
-        <item h="1" x="26"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="25"/>
-        <item h="1" x="28"/>
-        <item h="1" x="23"/>
-        <item h="1" x="29"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="27"/>
-        <item h="1" x="30"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="41"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="50"/>
-        <item h="1" x="42"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="44"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="46"/>
-        <item h="1" x="51"/>
-        <item h="1" x="58"/>
-        <item h="1" x="49"/>
-        <item h="1" x="60"/>
-        <item h="1" x="62"/>
-        <item h="1" x="63"/>
-        <item h="1" x="64"/>
-        <item h="1" x="56"/>
-        <item h="1" x="66"/>
-        <item h="1" x="57"/>
-        <item h="1" x="61"/>
-        <item h="1" x="69"/>
-        <item h="1" x="70"/>
-        <item h="1" x="59"/>
-        <item h="1" x="71"/>
-        <item h="1" x="73"/>
-        <item h="1" x="65"/>
-        <item h="1" x="75"/>
-        <item h="1" x="76"/>
-        <item h="1" x="77"/>
-        <item h="1" x="67"/>
-        <item h="1" x="72"/>
-        <item h="1" x="68"/>
-        <item h="1" x="79"/>
-        <item h="1" x="81"/>
-        <item h="1" x="83"/>
-        <item h="1" x="84"/>
-        <item h="1" x="74"/>
-        <item h="1" x="85"/>
-        <item h="1" x="86"/>
-        <item h="1" x="78"/>
-        <item h="1" x="82"/>
-        <item h="1" x="80"/>
-        <item h="1" x="88"/>
-        <item h="1" x="89"/>
-        <item h="1" x="92"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="87"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="56"/>
+        <item x="66"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="59"/>
+        <item x="71"/>
+        <item x="73"/>
+        <item x="65"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="67"/>
+        <item x="72"/>
+        <item x="68"/>
+        <item x="79"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="74"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="78"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="92"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="87"/>
         <item x="90"/>
         <item x="97"/>
         <item x="98"/>
@@ -6515,11 +10930,11 @@
         <item x="108"/>
         <item x="102"/>
         <item x="109"/>
-        <item h="1" x="103"/>
+        <item x="103"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6538,7 +10953,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -6549,7 +10964,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item h="1" sd="0" x="0"/>
         <item h="1" sd="0" x="1"/>
@@ -6558,16 +10973,97 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="4">
-    <field x="11"/>
-    <field x="10"/>
-    <field x="9"/>
+  <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="17">
     <i>
-      <x v="2"/>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
     </i>
     <i t="grand">
       <x/>
@@ -6591,104 +11087,188 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="8" baseItem="93" numFmtId="44"/>
   </dataFields>
-  <formats count="20">
-    <format dxfId="39">
+  <formats count="31">
+    <format dxfId="214">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="215">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="216">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="217">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="218">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="219">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="220">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="213">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="80">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="1">
+          <reference field="6" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    <format dxfId="52">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="50">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="6" count="0"/>
+          <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="28">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
+    <format dxfId="42">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="11" count="1">
+          <reference field="6" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
   </formats>
   <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="36" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="37" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6700,7 +11280,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="38" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6714,6 +11294,17 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="8" type="dateNewerThanOrEqual" evalOrder="-1" id="1">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="40909"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7036,265 +11627,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>85</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>11</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>72</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>13</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>60</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>12</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>95</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>88</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>99</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>11</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>75</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>13</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>100</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>13</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>75</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>15</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>85</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>11</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>85</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20">
         <f>MODE(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <f>MODE(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <f>COUNT(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <f>COUNT(D4:D14)</f>
         <v>11</v>
       </c>
@@ -7309,43 +11900,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5134AC-A3AF-4313-B645-03D1A11F4805}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="16.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -7353,36 +11960,247 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="31">
+        <v>40910</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>40913</v>
+      </c>
+      <c r="B6" s="29">
+        <v>340</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>40923</v>
+      </c>
+      <c r="B7" s="29">
+        <v>80</v>
+      </c>
+      <c r="C7" s="29">
+        <v>35</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>40924</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1392</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>105</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>40928</v>
+      </c>
+      <c r="B9" s="29">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>-20000</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>40929</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
+        <v>61</v>
+      </c>
+      <c r="E10" s="29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>40934</v>
+      </c>
+      <c r="B11" s="29">
+        <v>6720</v>
+      </c>
+      <c r="C11" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>40939</v>
+      </c>
+      <c r="B12" s="29">
+        <v>738.25</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>-170</v>
+      </c>
+      <c r="E12" s="29">
+        <v>568.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>40941</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>40944</v>
+      </c>
+      <c r="B14" s="29">
+        <v>340</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>40954</v>
+      </c>
+      <c r="B15" s="29">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29">
+        <v>35</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>40959</v>
+      </c>
+      <c r="B16" s="29">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="29">
+        <v>-20000</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>40964</v>
+      </c>
+      <c r="B17" s="29">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
+        <v>75</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>40965</v>
+      </c>
+      <c r="B18" s="29">
+        <v>6720</v>
+      </c>
+      <c r="C18" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>40966</v>
+      </c>
+      <c r="B19" s="29">
+        <v>514</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>40968</v>
+      </c>
+      <c r="B20" s="29">
+        <v>3770</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
+        <v>-70</v>
+      </c>
+      <c r="E20" s="29">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="29">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C21" s="29">
         <v>70</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D21" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
-        <v>64965.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="30">
-        <v>64894.25</v>
-      </c>
-      <c r="C6" s="30">
-        <v>70</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="E21" s="29">
         <v>64965.25</v>
       </c>
     </row>
@@ -7421,7 +12239,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7438,7 +12256,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
@@ -13484,7 +18302,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13530,24 +18348,24 @@
       <c r="A4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>2000</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>0.21</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>3</v>
       </c>
-      <c r="E4" s="26">
-        <f>SUM(B4*C4)</f>
+      <c r="E4" s="25">
+        <f>(B4*C4)</f>
         <v>420</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <f>SUM(B4+E4)</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <f>SUM(F4/D4)</f>
         <v>806.66666666666663</v>
       </c>
@@ -13556,25 +18374,25 @@
       <c r="A5" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>450</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>0.25</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:E8" si="0">SUM(B5*C5)</f>
+      <c r="E5" s="25">
+        <f>SUM(B5*C5)</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="27">
-        <f t="shared" ref="F5:F8" si="1">SUM(B5+E5)</f>
+      <c r="F5" s="26">
+        <f t="shared" ref="F5:F8" si="0">SUM(B5+E5)</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="27">
-        <f t="shared" ref="G5:G8" si="2">SUM(F5/D5)</f>
+      <c r="G5" s="26">
+        <f t="shared" ref="G5:G8" si="1">SUM(F5/D5)</f>
         <v>187.5</v>
       </c>
     </row>
@@ -13582,25 +18400,25 @@
       <c r="A6" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>975</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>0.27</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
+        <f t="shared" ref="E5:E8" si="2">SUM(B6*C6)</f>
+        <v>263.25</v>
+      </c>
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
-        <v>263.25</v>
-      </c>
-      <c r="F6" s="27">
+        <v>1238.25</v>
+      </c>
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
-        <v>1238.25</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
@@ -13608,25 +18426,25 @@
       <c r="A7" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>1500</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>0.15</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>3</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F7" s="27">
+        <v>1725</v>
+      </c>
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
-        <v>1725</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
@@ -13634,25 +18452,25 @@
       <c r="A8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>780</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.25</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="F8" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="F8" s="27">
+        <v>975</v>
+      </c>
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
-        <v>975</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
